--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/StructureDefinition/radiotherapy-volume</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/StructureDefinition/radiotherapy-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -259,6 +262,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Specific and identified anatomical structure</t>
   </si>
   <si>
@@ -465,9 +472,6 @@
 </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Identification number of the prescription volume. Dicom Tag (3006,0022) or Dicom Tag (300A,000B)</t>
   </si>
   <si>
@@ -650,7 +654,7 @@
     <t>BodyStructure.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.arkhn.com/osiris/StructureDefinition/onco-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/StructureDefinition/onco-patient)
 </t>
   </si>
   <si>
@@ -986,7 +990,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -996,46 +1000,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="30.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.91796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.3515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="42.86328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.96875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.34765625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="85.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="42.86328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="151.96875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="45.34765625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="85.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1162,19 +1166,22 @@
       <c r="AO1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>77</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
@@ -1182,73 +1189,73 @@
         <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
@@ -1257,622 +1264,640 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
@@ -1880,75 +1905,75 @@
         <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1957,39 +1982,42 @@
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
@@ -1997,75 +2025,75 @@
         <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2074,39 +2102,42 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2114,77 +2145,77 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2193,113 +2224,116 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>80</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2308,10 +2342,10 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>147</v>
@@ -2320,41 +2354,44 @@
         <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>150</v>
       </c>
+      <c r="AP11" t="s" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>153</v>
@@ -2369,113 +2406,116 @@
         <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>162</v>
@@ -2486,31 +2526,31 @@
       <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>166</v>
@@ -2519,255 +2559,261 @@
         <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>179</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2776,53 +2822,56 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>187</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>189</v>
@@ -2833,99 +2882,102 @@
       <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2933,13 +2985,13 @@
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>198</v>
@@ -2947,59 +2999,59 @@
       <c r="L17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3008,53 +3060,56 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>205</v>
@@ -3062,90 +3117,93 @@
       <c r="L18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO18">
+  <autoFilter ref="A1:AP18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -262,10 +259,6 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Specific and identified anatomical structure</t>
   </si>
   <si>
@@ -470,6 +463,9 @@
   <si>
     <t xml:space="preserve">Identifier
 </t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Identification number of the prescription volume. Dicom Tag (3006,0022) or Dicom Tag (300A,000B)</t>
@@ -990,7 +986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP18"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1000,46 +996,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="30.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.3515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="42.86328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="151.96875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="45.34765625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="85.15234375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="42.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.96875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.34765625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="85.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1166,22 +1162,19 @@
       <c r="AO1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>76</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s" s="2">
+      <c r="B2" s="2"/>
+      <c r="C2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
@@ -1189,73 +1182,73 @@
         <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="2"/>
+      <c r="O2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
@@ -1264,640 +1257,622 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" s="2"/>
+      <c r="O6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
@@ -1905,75 +1880,75 @@
         <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1982,42 +1957,39 @@
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
@@ -2025,75 +1997,75 @@
         <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2102,42 +2074,39 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2145,77 +2114,77 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="O10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2224,116 +2193,113 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2342,10 +2308,10 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>147</v>
@@ -2354,44 +2320,41 @@
         <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AP11" t="s" s="2">
-        <v>151</v>
-      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>153</v>
@@ -2406,116 +2369,113 @@
         <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="Q12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>162</v>
@@ -2526,31 +2486,31 @@
       <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>166</v>
@@ -2559,261 +2519,255 @@
         <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AO13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AP14" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2822,56 +2776,53 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AP15" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>189</v>
@@ -2882,102 +2833,99 @@
       <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2985,13 +2933,13 @@
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>198</v>
@@ -2999,59 +2947,59 @@
       <c r="L17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3060,56 +3008,53 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AN17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AO17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>205</v>
@@ -3117,93 +3062,90 @@
       <c r="L18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP18">
+  <autoFilter ref="A1:AO18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-radiotherapy-volume.xlsx
+++ b/output/StructureDefinition-radiotherapy-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
